--- a/biology/Botanique/William_Bartram/William_Bartram.xlsx
+++ b/biology/Botanique/William_Bartram/William_Bartram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Bartram (20 avril 1739, Kingsessing, Pennsylvanie - 22 juillet 1823) est un naturaliste américain, fils de John Bartram.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il accompagne son père dans ses nombreux voyages, notamment dans les montagnes Catskill et en Floride. Dès son jeune âge, il maîtrise parfaitement le dessin naturaliste et notamment l'illustration botanique. Il contribue également à l'entretien du jardin botanique créé par son père.
 En 1773, William Bartram voyage seul et explore la Floride, la Géorgie, la Caroline du Nord et celle du Sud. Il y récolte des exemplaires de la flore et de la faune locales, les dessine et s'intéresse également aux Amérindiens qu'il y croise. Il réalise la liste d'oiseaux des États-Unis la plus complète de son temps.
